--- a/data/cash_flow.xlsx
+++ b/data/cash_flow.xlsx
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-0.3002</v>
+        <v>-0.3014</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-0.0889</v>

--- a/data/cash_flow.xlsx
+++ b/data/cash_flow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="PDD" r:id="rId4"/>
+    <sheet sheetId="1" name="PINS" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -67,19 +67,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="47.300000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -89,22 +89,22 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44926.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44561.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43100.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>42735.0</v>
       </c>
     </row>
     <row r="2">
@@ -114,22 +114,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1219074000.0</v>
+        <v>-96047000.0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-1100344000.0</v>
+        <v>316438000.0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-1000834000.0</v>
+        <v>-128323000.0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-1486020000.0</v>
+        <v>-1361371000.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>-83713000.0</v>
+        <v>-62974000.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-44000000.0</v>
+        <v>-130044000.0</v>
       </c>
     </row>
     <row r="3">
@@ -139,22 +139,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>289402000.0</v>
+        <v>46489000.0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>99850000.0</v>
+        <v>27500000.0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>91619000.0</v>
+        <v>36988000.0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>72286000.0</v>
+        <v>27791000.0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>361000.0</v>
+        <v>20859000.0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>113800.0</v>
+        <v>16135000.0</v>
       </c>
     </row>
     <row r="4">
@@ -164,24 +164,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>880079000.0</v>
+        <v>483234000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>563248000.0</v>
+        <v>470289000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>365579000.0</v>
+        <v>332100000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>983685000.0</v>
+        <v>1373791000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3327000.0</v>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>15886000.0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>29457000.0</v>
       </c>
     </row>
     <row r="5">
@@ -191,57 +189,47 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>8758000.0</v>
+        <v>-28856000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>49261000.0</v>
+        <v>-88862000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>-115399000.0</v>
+        <v>-253173000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-23186000.0</v>
+        <v>-94224000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>-12418000.0</v>
+        <v>-86094000.0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-1665400.0</v>
+        <v>-47833000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Change in inventories</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Accounts Payable Change</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>70777000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>263000000.0</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-33451000.0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>15721000.0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>11636000.0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>6533000.0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>11969000.0</v>
       </c>
     </row>
     <row r="7">
@@ -251,22 +239,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1347000000.0</v>
+        <v>20627000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3468000000.0</v>
+        <v>82435000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1831000000.0</v>
+        <v>23647000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1124000000.0</v>
+        <v>31890000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1291000000.0</v>
+        <v>26336000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>164310000.0</v>
+        <v>20596000.0</v>
       </c>
     </row>
     <row r="8">
@@ -276,22 +264,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2119370000.0</v>
+        <v>-27022000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4709308000.0</v>
+        <v>-21442000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2787935000.0</v>
+        <v>1866000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1583033000.0</v>
+        <v>11144000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>142735100.0</v>
+        <v>19085000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>26060900.0</v>
+        <v>-3193000.0</v>
       </c>
     </row>
     <row r="9">
@@ -301,22 +289,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4516683000.0</v>
+        <v>469202000.0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4321323000.0</v>
+        <v>752907000.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2128900000.0</v>
+        <v>28826000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1129798000.0</v>
+        <v>657000.0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>50292000.0</v>
+        <v>-60369000.0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>132425600.0</v>
+        <v>-102913000.0</v>
       </c>
     </row>
     <row r="10">
@@ -326,46 +314,50 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-515776000.0</v>
+        <v>-28984000.0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>-6589000.0</v>
+        <v>-9031000.0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>-3873000.0</v>
+        <v>-17401000.0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>-3969000.0</v>
+        <v>-33783000.0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>-1364000.0</v>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-22194000.0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>-41192000.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Short Term Investments Change (Net)</t>
+          <t>Net Aquisitions</t>
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-2996032000.0</v>
+        <v>-86059000.0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-4805315000.0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>-3972245000.0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>-1085939000.0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>38262000.0</v>
+        <v>-36914000.0</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -380,26 +372,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-2138539000.0</v>
+        <v>-13202000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-1030227000.0</v>
+        <v>20086900.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-30754000.0</v>
+        <v>-30538000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-26127000.0</v>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-552718000.0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>136757000.0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>-17053000.0</v>
       </c>
     </row>
     <row r="13">
@@ -408,25 +396,25 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>69836000.0</v>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-36475000.0</v>
+        <v>-1750000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-60995000.0</v>
+        <v>316000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>18150000.0</v>
+        <v>-486346000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-25474000.0</v>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-500000.0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>995000.0</v>
       </c>
     </row>
     <row r="14">
@@ -436,22 +424,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-5580511000.0</v>
+        <v>-128245000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-5878606000.0</v>
+        <v>-25858000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-4067867000.0</v>
+        <v>-47623000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-1097885000.0</v>
+        <v>-586501000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>11424000.0</v>
+        <v>114063000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-46255500.0</v>
+        <v>-57250000.0</v>
       </c>
     </row>
     <row r="15">
@@ -461,23 +449,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-294303000.0</v>
+        <v>-52832000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>2276340000.0</v>
+        <v>-50710000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1144837000.0</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-44160000.0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>-28395000.0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>-2552000.0</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -491,29 +475,23 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-148927000.0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4108113000.0</v>
+        <v>23912000.0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1177080000.0</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>21388000.0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1139529000.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-5209000.0</v>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>671000.0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>480000.0</v>
       </c>
     </row>
     <row r="17">
@@ -537,396 +515,343 @@
           <t/>
         </is>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>847148000.0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>230671000.0</v>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>149784000.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Dividends Paid (Total)</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Other financial activities</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>321425000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-1750000.0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>-1750000.0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>-11331000.0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>-2887000.0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-2758500.0</v>
+        <v>29457000.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Other financial activities</t>
+          <t>Financing cash flow</t>
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>50000.0</v>
+        <v>-148927000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1554090000.0</v>
+        <v>22162000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-44527000.0</v>
+        <v>19638000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1675484000.0</v>
+        <v>1128198000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-2450000.0</v>
+        <v>-2216000.0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1916400.0</v>
+        <v>150264000.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Financing cash flow</t>
+          <t>Exchange Rate Adjustment</t>
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-294253000.0</v>
+        <v>-1434000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>7938543000.0</v>
+        <v>-1058000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2277390000.0</v>
+        <v>327000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2522632000.0</v>
+        <v>99000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>223012000.0</v>
+        <v>-157000.0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>73234500.0</v>
+        <v>145000.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Exchange Rate Adjustment</t>
+          <t>Change in Cash</t>
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-22779000.0</v>
+        <v>190596000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-21447000.0</v>
+        <v>748153000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>64659000.0</v>
+        <v>1168000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>79545000.0</v>
+        <v>542453000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-7601000.0</v>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>51321000.0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>-9754000.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Change in Cash</t>
+          <t>Beginning Cash</t>
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-1380860000.0</v>
+        <v>1427064000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>6359813000.0</v>
+        <v>678911000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>403082000.0</v>
+        <v>677743000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2634090000.0</v>
+        <v>135290000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>277127000.0</v>
+        <v>83969000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>162474800.0</v>
+        <v>93723000.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Beginning Cash</t>
+          <t>Ending Cash</t>
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>11744600000.0</v>
+        <v>1617660000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>5110476000.0</v>
+        <v>1427064000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>4386751000.0</v>
+        <v>678911000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1807723000.0</v>
+        <v>677743000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>210414000.0</v>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>135290000.0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>83969000.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Ending Cash</t>
+          <t>Stock Based Compensation</t>
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10363740000.0</v>
+        <v>497123000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>11470290000.0</v>
+        <v>415382000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>4789833000.0</v>
+        <v>321020000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>4441813000.0</v>
+        <v>1377781000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>487541000.0</v>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>14859000.0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>28804000.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Stock Based Compensation</t>
+          <t>Dividends Paid (Common)</t>
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>749259000.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>553723000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>367392000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>995066000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2133000.0</v>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Dividends Paid (Common)</t>
+          <t>Net Cash/Marketcap</t>
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.1623</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0958</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0401</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.1905</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-0.1544</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>-0.1544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Net Cash/Marketcap</t>
+          <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-0.3014</v>
+        <v>35526000.0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>-0.0889</v>
+        <v>-61320000.0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>-0.2049</v>
+        <v>-211939000.0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-0.3334</v>
+        <v>-39554000.0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>-0.223</v>
+        <v>-34140000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>-0.223</v>
+        <v>-18461000.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Assets Liabilities Change (Total)</t>
+          <t>Investments Change (Net)</t>
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2128128000.0</v>
+        <v>-13202000.0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>4758569000.0</v>
+        <v>20086900.0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2672536000.0</v>
+        <v>-30538000.0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1559847000.0</v>
+        <v>-552718000.0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>130317100.0</v>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>136757000.0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>-17053000.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>Investments Change (Net)</t>
+          <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-5134571000.0</v>
+        <v>-148927000.0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>-5835542000.0</v>
+        <v>23912000.0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-4002999000.0</v>
+        <v>21388000.0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-1112066000.0</v>
+        <v>1139529000.0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>38262000.0</v>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>671000.0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>150264000.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Issuance/Purchase of Shares</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Capital Stock Change</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>-148927000.0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>4108113000.0</v>
+        <v>23912000.0</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1177080000.0</v>
+        <v>21388000.0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>847148000.0</v>
+        <v>1139529000.0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>225462000.0</v>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>Capital Stock Change</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>4108113000.0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1177080000.0</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>847148000.0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>225462000.0</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>75993000.0</v>
+        <v>671000.0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>150264000.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/cash_flow.xlsx
+++ b/data/cash_flow.xlsx
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-0.1623</v>
+        <v>-0.1621</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-0.0958</v>
+        <v>-0.0959</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>-0.0401</v>
